--- a/mesurments.xlsx
+++ b/mesurments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailhujiacil-my.sharepoint.com/personal/dana_rabinovich_mail_huji_ac_il/Documents/Huji - Year 3/second semester/OS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailhujiacil-my.sharepoint.com/personal/dana_rabinovich_mail_huji_ac_il/Documents/Huji - Year 3/second semester/OS/OS---Ex1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{EE2A8B45-6A5E-44F0-BA36-212B62ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CAFEF00-09D5-46F0-9631-9AAD2DBC94AF}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{EE2A8B45-6A5E-44F0-BA36-212B62ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{006239DA-C10F-46C3-A9A8-3C34FC6201AF}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
+    <workbookView xWindow="2910" yWindow="2910" windowWidth="21600" windowHeight="11475" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,10 +286,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Container</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CS Computer</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>VM</c:v>
@@ -304,10 +304,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2080000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2220000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2080000</c:v>
+                <c:pt idx="2">
+                  <c:v>6570000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,10 +386,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Container</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CS Computer</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>VM</c:v>
@@ -401,10 +404,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12250000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11500000</c:v>
+                <c:pt idx="2">
+                  <c:v>134250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,10 +486,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Container</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CS Computer</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>VM</c:v>
@@ -498,10 +504,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2166050000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2252800000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2166050000</c:v>
+                <c:pt idx="2">
+                  <c:v>5611650000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +638,7 @@
       <c:valAx>
         <c:axId val="1184216623"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -821,7 +830,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Measuring multiple operations on different devices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>addition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2080000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2220000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6570000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2689-4743-8C8B-619D8F2009A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>empty function call</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2689-4743-8C8B-619D8F2009A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2166050000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2252800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5611650000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2689-4743-8C8B-619D8F2009A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1672912479"/>
+        <c:axId val="1841414303"/>
+        <c:axId val="1842199999"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1672912479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>device</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34185258682618097"/>
+              <c:y val="0.94495084637185756"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841414303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1841414303"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>time  [log(nanosecond)]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IL" sz="600">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672912479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1842199999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1841414303"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1364,6 +2168,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="289">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1397,6 +2704,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125866</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>183696</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30A9AFB-73DA-4C63-96A0-E0031F060B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1704,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB234737-443D-4076-A26C-423A5C823960}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1716,10 +3059,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1730,10 +3073,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
+        <v>2080000</v>
+      </c>
+      <c r="C2" s="1">
         <v>2220000</v>
       </c>
-      <c r="C2" s="1">
-        <v>2080000</v>
+      <c r="D2" s="1">
+        <v>6570000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1741,10 +3087,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
+        <v>11500000</v>
+      </c>
+      <c r="C3" s="1">
         <v>12250000</v>
       </c>
-      <c r="C3" s="1">
-        <v>11500000</v>
+      <c r="D3" s="1">
+        <v>134250000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1752,10 +3101,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
+        <v>2166050000</v>
+      </c>
+      <c r="C4" s="1">
         <v>2252800000</v>
       </c>
-      <c r="C4" s="1">
-        <v>2166050000</v>
+      <c r="D4" s="1">
+        <v>5611650000</v>
       </c>
     </row>
   </sheetData>
@@ -1765,6 +3117,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100675D20B5D1DC2546960DA64701261CAC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aab8a41d7b0a54f53efbdefe9d6e17e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f062ed6a-58f2-43c0-8b7c-0938cf823acf" xmlns:ns4="80ad5205-0a51-444b-a471-6e70e62f1389" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ef80bd52e69b7c5d84822dbf7eb7488" ns3:_="" ns4:_="">
     <xsd:import namespace="f062ed6a-58f2-43c0-8b7c-0938cf823acf"/>
@@ -1967,22 +3334,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2E559E-F54D-43B2-9B8C-A99A08C05C21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1999,21 +3368,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/mesurments.xlsx
+++ b/mesurments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailhujiacil-my.sharepoint.com/personal/dana_rabinovich_mail_huji_ac_il/Documents/Huji - Year 3/second semester/OS/OS---Ex1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{EE2A8B45-6A5E-44F0-BA36-212B62ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{006239DA-C10F-46C3-A9A8-3C34FC6201AF}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{EE2A8B45-6A5E-44F0-BA36-212B62ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A297069D-37E0-461E-967C-9841689A0802}"/>
   <bookViews>
     <workbookView xWindow="2910" yWindow="2910" windowWidth="21600" windowHeight="11475" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
   </bookViews>
@@ -226,11 +226,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>addition</c:v>
+                  <c:v>CS Computer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -282,24 +282,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CS Computer</c:v>
+                  <c:v>addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Container</c:v>
+                  <c:v>empty function call</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VM</c:v>
+                  <c:v>trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -307,10 +307,10 @@
                   <c:v>2080000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2220000</c:v>
+                  <c:v>11500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6570000</c:v>
+                  <c:v>2166050000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,11 +326,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>empty function call</c:v>
+                  <c:v>Container</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -382,35 +382,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CS Computer</c:v>
+                  <c:v>addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Container</c:v>
+                  <c:v>empty function call</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VM</c:v>
+                  <c:v>trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11500000</c:v>
+                  <c:v>2220000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12250000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134250000</c:v>
+                  <c:v>2252800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,11 +426,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>trap</c:v>
+                  <c:v>VM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -482,32 +482,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>CS Computer</c:v>
+                  <c:v>addition</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Container</c:v>
+                  <c:v>empty function call</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VM</c:v>
+                  <c:v>trap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2166050000</c:v>
+                  <c:v>6570000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2252800000</c:v>
+                  <c:v>134250000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5611650000</c:v>
@@ -563,7 +563,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>device</a:t>
+                  <a:t>OPEATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1585,6 +1585,730 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measuring multiple operations on different devices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>addition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2080000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2220000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6570000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C0A-4394-BBD5-B6B0A5EFE3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>empty function call</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12250000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C0A-4394-BBD5-B6B0A5EFE3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CS Computer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Container</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2166050000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2252800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5611650000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C0A-4394-BBD5-B6B0A5EFE3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1360256511"/>
+        <c:axId val="1184216623"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1360256511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>DEVICE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184216623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1184216623"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time  [log(nanosecond)]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360256511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1665,6 +2389,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="289">
   <cs:axisTitle>
@@ -2671,20 +3435,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="289">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147638</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>159544</xdr:rowOff>
+      <xdr:colOff>161245</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>358888</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2740,6 +4007,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605518</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156823</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62D1D7E-1185-4024-BEDD-2CF03BCE92D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3048,7 +4353,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3126,12 +4431,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100675D20B5D1DC2546960DA64701261CAC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aab8a41d7b0a54f53efbdefe9d6e17e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f062ed6a-58f2-43c0-8b7c-0938cf823acf" xmlns:ns4="80ad5205-0a51-444b-a471-6e70e62f1389" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ef80bd52e69b7c5d84822dbf7eb7488" ns3:_="" ns4:_="">
     <xsd:import namespace="f062ed6a-58f2-43c0-8b7c-0938cf823acf"/>
@@ -3334,6 +4633,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
   <ds:schemaRefs>
@@ -3343,15 +4648,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2E559E-F54D-43B2-9B8C-A99A08C05C21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3368,4 +4664,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/mesurments.xlsx
+++ b/mesurments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailhujiacil-my.sharepoint.com/personal/dana_rabinovich_mail_huji_ac_il/Documents/Huji - Year 3/second semester/OS/OS---Ex1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Study\university\Computational-Biology\Year 3\Semester B\OS\targils\OS---Ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{EE2A8B45-6A5E-44F0-BA36-212B62ED6F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A297069D-37E0-461E-967C-9841689A0802}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B659171-6391-4FA1-8BEA-D677B85319B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2910" windowWidth="21600" windowHeight="11475" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
+    <workbookView xWindow="-5208" yWindow="7584" windowWidth="19320" windowHeight="11388" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -304,13 +304,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2080000</c:v>
+                  <c:v>0.52991999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11500000</c:v>
+                  <c:v>2.1888000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2166050000</c:v>
+                  <c:v>417.97899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,13 +404,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2220000</c:v>
+                  <c:v>0.58879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12250000</c:v>
+                  <c:v>2.68032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2252800000</c:v>
+                  <c:v>510.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,13 +504,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6570000</c:v>
+                  <c:v>6.9691999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134250000</c:v>
+                  <c:v>24.619700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5611650000</c:v>
+                  <c:v>1844.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +563,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>OPEATION</a:t>
+                  <a:t>OPEARTION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -593,7 +593,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -625,7 +625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184216623"/>
@@ -678,7 +678,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>time  [log(nanosecond)]</a:t>
+                  <a:t>time  (nanosecond)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -708,7 +708,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -740,7 +740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1360256511"/>
@@ -782,7 +782,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -819,7 +819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -900,7 +900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1033,13 +1033,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2080000</c:v>
+                  <c:v>0.52991999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2220000</c:v>
+                  <c:v>0.58879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6570000</c:v>
+                  <c:v>6.9691999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,13 +1133,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11500000</c:v>
+                  <c:v>2.1888000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12250000</c:v>
+                  <c:v>2.68032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134250000</c:v>
+                  <c:v>24.619700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,13 +1233,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2166050000</c:v>
+                  <c:v>417.97899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2252800000</c:v>
+                  <c:v>510.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5611650000</c:v>
+                  <c:v>1844.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,7 +1330,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1362,7 +1362,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1841414303"/>
@@ -1417,7 +1417,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" cap="all" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>time  [log(nanosecond)]</a:t>
+                  <a:t>time  (nanosecond</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-IL" sz="600">
                   <a:effectLst/>
@@ -1450,7 +1450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1482,7 +1482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672912479"/>
@@ -1537,7 +1537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1574,7 +1574,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1650,7 +1650,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1783,13 +1783,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2080000</c:v>
+                  <c:v>0.52991999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2220000</c:v>
+                  <c:v>0.58879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6570000</c:v>
+                  <c:v>6.9691999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,13 +1883,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11500000</c:v>
+                  <c:v>2.1888000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12250000</c:v>
+                  <c:v>2.68032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134250000</c:v>
+                  <c:v>24.619700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,13 +1983,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2166050000</c:v>
+                  <c:v>417.97899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2252800000</c:v>
+                  <c:v>510.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5611650000</c:v>
+                  <c:v>1844.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,7 +2072,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2104,7 +2104,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184216623"/>
@@ -2157,7 +2157,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>time  [log(nanosecond)]</a:t>
+                  <a:t>time  (nanosecond)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2187,7 +2187,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2219,7 +2219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1360256511"/>
@@ -2261,7 +2261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2298,7 +2298,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4352,17 +4352,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB234737-443D-4076-A26C-423A5C823960}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -4373,46 +4374,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2080000</v>
+        <v>0.52991999999999995</v>
       </c>
       <c r="C2" s="1">
-        <v>2220000</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>6570000</v>
+        <v>6.9691999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>11500000</v>
+        <v>2.1888000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>12250000</v>
+        <v>2.68032</v>
       </c>
       <c r="D3" s="1">
-        <v>134250000</v>
+        <v>24.619700000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2166050000</v>
+        <v>417.97899999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>2252800000</v>
+        <v>510.73</v>
       </c>
       <c r="D4" s="1">
-        <v>5611650000</v>
+        <v>1844.02</v>
       </c>
     </row>
   </sheetData>
@@ -4422,15 +4423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100675D20B5D1DC2546960DA64701261CAC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aab8a41d7b0a54f53efbdefe9d6e17e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f062ed6a-58f2-43c0-8b7c-0938cf823acf" xmlns:ns4="80ad5205-0a51-444b-a471-6e70e62f1389" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ef80bd52e69b7c5d84822dbf7eb7488" ns3:_="" ns4:_="">
     <xsd:import namespace="f062ed6a-58f2-43c0-8b7c-0938cf823acf"/>
@@ -4633,6 +4625,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4640,14 +4641,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2E559E-F54D-43B2-9B8C-A99A08C05C21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4666,6 +4659,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
   <ds:schemaRefs>

--- a/mesurments.xlsx
+++ b/mesurments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Study\university\Computational-Biology\Year 3\Semester B\OS\targils\OS---Ex1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailhujiacil-my.sharepoint.com/personal/dana_rabinovich_mail_huji_ac_il/Documents/Huji - Year 3/second semester/OS/OS---Ex1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B659171-6391-4FA1-8BEA-D677B85319B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="6_{21AA3EAD-77A2-4959-8628-A14417BD4866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACA7916B-FCE0-4E5C-B245-2C96A92E8E99}"/>
   <bookViews>
-    <workbookView xWindow="-5208" yWindow="7584" windowWidth="19320" windowHeight="11388" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{A43B9525-1556-44F3-A035-36B810C13F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Container</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>trap</t>
+  </si>
+  <si>
+    <t>ס</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -568,6 +571,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48334346961393571"/>
+              <c:y val="0.88236889688229758"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -593,14 +604,14 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -625,7 +636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184216623"/>
@@ -708,7 +719,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -740,7 +751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1360256511"/>
@@ -782,7 +793,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -819,7 +830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -900,7 +911,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1009,6 +1020,70 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.687214228618619E-17"/>
+                  <c:y val="0.152170201257501"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-02FB-4904-BE09-E47941A86A93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$D$1</c:f>
@@ -1109,6 +1184,9 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$D$1</c:f>
@@ -1209,6 +1287,9 @@
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$D$1</c:f>
@@ -1252,7 +1333,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1301,8 +1382,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.34185258682618097"/>
-              <c:y val="0.94495084637185756"/>
+              <c:x val="0.36373829837679761"/>
+              <c:y val="0.70854356941824004"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1330,7 +1411,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1362,7 +1443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1841414303"/>
@@ -1417,7 +1498,7 @@
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" cap="all" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>time  (nanosecond</a:t>
+                  <a:t>time  log(nanosecond)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-IL" sz="600">
                   <a:effectLst/>
@@ -1450,7 +1531,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1482,7 +1563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672912479"/>
@@ -1502,6 +1583,44 @@
         <c:crossAx val="1841414303"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1537,7 +1656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1574,7 +1693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1650,7 +1769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1695,7 +1814,17 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14522690914822323"/>
+          <c:y val="0.11347158097493784"/>
+          <c:w val="0.83154665454524901"/>
+          <c:h val="0.76152257733791551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2047,6 +2176,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49920611142903598"/>
+              <c:y val="0.87013146566364696"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2072,7 +2209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2104,7 +2241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184216623"/>
@@ -2187,7 +2324,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="LID4096"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2219,7 +2356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1360256511"/>
@@ -2261,7 +2398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2298,7 +2435,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4350,20 +4487,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB234737-443D-4076-A26C-423A5C823960}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -4374,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4525,7 @@
         <v>6.9691999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4539,7 @@
         <v>24.619700000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4416,6 +4553,11 @@
         <v>1844.02</v>
       </c>
     </row>
+    <row r="20" spans="32:32" x14ac:dyDescent="0.45">
+      <c r="AF20" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4423,6 +4565,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100675D20B5D1DC2546960DA64701261CAC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aab8a41d7b0a54f53efbdefe9d6e17e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f062ed6a-58f2-43c0-8b7c-0938cf823acf" xmlns:ns4="80ad5205-0a51-444b-a471-6e70e62f1389" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ef80bd52e69b7c5d84822dbf7eb7488" ns3:_="" ns4:_="">
     <xsd:import namespace="f062ed6a-58f2-43c0-8b7c-0938cf823acf"/>
@@ -4625,15 +4776,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4641,6 +4783,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A2E559E-F54D-43B2-9B8C-A99A08C05C21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4659,14 +4809,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26836207-EC28-4788-8E73-8C87E800FF56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6A63F3-4CE9-4EEF-B20B-CAA1D7468216}">
   <ds:schemaRefs>
